--- a/suggests/you/suggest.xlsx
+++ b/suggests/you/suggest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,15 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>title</t>
   </si>
@@ -33,13 +40,16 @@
   <si>
     <t>name</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -149,6 +159,11 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -603,10 +618,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -925,15 +942,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -949,11 +966,15 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
